--- a/tests/integration/res/ai-and-nanotech-applicants_labels.xlsx
+++ b/tests/integration/res/ai-and-nanotech-applicants_labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="370">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -115,12 +115,12 @@
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>GOOGLE LLC</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
@@ -472,28 +472,28 @@
     <t>US</t>
   </si>
   <si>
+    <t>WO</t>
+  </si>
+  <si>
     <t>AU;;US</t>
   </si>
   <si>
-    <t>WO</t>
-  </si>
-  <si>
     <t>WO;;CA;;US</t>
   </si>
   <si>
     <t>US;;KR</t>
   </si>
   <si>
+    <t>WO;;US</t>
+  </si>
+  <si>
     <t>US;;WO</t>
   </si>
   <si>
-    <t>WO;;US</t>
-  </si>
-  <si>
     <t>EP;;FR;;WO</t>
   </si>
   <si>
-    <t>TW;;GB;;WO;;EP;;SG;;CA</t>
+    <t>GB;;WO;;TW;;CA;;SG;;EP</t>
   </si>
   <si>
     <t>CN</t>
@@ -508,154 +508,142 @@
     <t>CN;;US</t>
   </si>
   <si>
-    <t>AU;;CN;;CA;;JP;;EP</t>
+    <t>CA;;AU;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>CA;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US;;WO</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>CN;;EP</t>
+  </si>
+  <si>
+    <t>JP;;US</t>
+  </si>
+  <si>
+    <t>JP;;KR;;CN;;EP</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>CN;;US;;TW</t>
+  </si>
+  <si>
+    <t>CA;;AU;;KR;;EP</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>GB;;JP;;CN;;DE</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;SG;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>CN;;GB;;DE;;JP;;WO;;US</t>
+  </si>
+  <si>
+    <t>CA;;CN;;EP;;SG;;JP;;AU;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US</t>
+  </si>
+  <si>
+    <t>CN;;EP;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US;;CA</t>
+  </si>
+  <si>
+    <t>TW;;WO;;EP;;US</t>
+  </si>
+  <si>
+    <t>US;;KR;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;WO;;CA;;US</t>
+  </si>
+  <si>
+    <t>EP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>CN;;WO;;KR;;US</t>
+  </si>
+  <si>
+    <t>TW;;CN;;EP;;JP;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>CN;;WO;;EP;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;US;;CA</t>
+  </si>
+  <si>
+    <t>TW;;SG;;EP;;GB;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;US;;KR</t>
+  </si>
+  <si>
+    <t>EP;;CN;;SG;;JP;;AU;;KR;;US;;WO;;CA</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP;;WO</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>CN;;EP</t>
-  </si>
-  <si>
-    <t>JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;KR;;JP;;EP</t>
+    <t>EP;;SG;;CN;;JP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>JP;;CN;;EP;;KR</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;CA</t>
   </si>
   <si>
     <t>CN;;TW;;US</t>
   </si>
   <si>
-    <t>EP;;CA;;KR;;AU</t>
-  </si>
-  <si>
-    <t>CA;;CN;;AU;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CA;;AU;;CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;DE;;JP;;GB</t>
-  </si>
-  <si>
-    <t>AU;;CA;;CN;;KR;;JP;;US;;WO;;EP;;SG</t>
-  </si>
-  <si>
-    <t>RU;;AU;;CA;;CN;;KR;;IL;;TW;;JP;;WO;;US;;EP;;ZA</t>
-  </si>
-  <si>
-    <t>AU;;CN;;CA;;KR;;JP;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;CA;;SG;;EP;;CN;;AU;;WO</t>
-  </si>
-  <si>
-    <t>JP;;US;;GB;;CN;;DE;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;CN</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;CA;;EP;;CN;;AU;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO;;CA</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO;;TW</t>
-  </si>
-  <si>
-    <t>US;;KR;;WO;;CA</t>
-  </si>
-  <si>
-    <t>KR;;US;;CA;;EP;;AU;;WO</t>
-  </si>
-  <si>
-    <t>US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>US;;KR;;WO;;CN</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;EP;;CN;;TW;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;CN;;WO</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;CA;;EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>FR;;EP;;WO</t>
-  </si>
-  <si>
-    <t>GB;;CA;;SG;;EP;;TW;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;KR</t>
-  </si>
-  <si>
-    <t>US;;CN;;JP</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;EP;;CN;;WO</t>
-  </si>
-  <si>
-    <t>EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;JP</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CN;;JP</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;EP;;CN</t>
-  </si>
-  <si>
-    <t>KR;;JP;;CA;;EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;CN;;TW</t>
-  </si>
-  <si>
     <t>EP;;KR;;AU;;CA</t>
   </si>
   <si>
-    <t>ZA;;KR;;RU;;IL;;JP;;US;;CA;;EP;;CN;;TW;;AU;;WO</t>
-  </si>
-  <si>
-    <t>ZA;;RU;;KR;;IL;;JP;;US;;CA;;EP;;CN;;TW;;AU;;WO</t>
-  </si>
-  <si>
-    <t>KR;;JP;;CA;;EP;;CN;;AU</t>
-  </si>
-  <si>
-    <t>DE;;CN;;JP;;GB</t>
+    <t>TW;;EP;;IL;;CN;;ZA;;JP;;AU;;KR;;US;;WO;;RU;;CA</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;AU;;KR;;CA</t>
+  </si>
+  <si>
+    <t>JP;;DE;;CN;;GB</t>
   </si>
   <si>
     <t>FR</t>
@@ -679,25 +667,22 @@
     <t>RU</t>
   </si>
   <si>
+    <t>US;;IB</t>
+  </si>
+  <si>
     <t>IB;;US</t>
   </si>
   <si>
-    <t>US;;AU;;CA</t>
-  </si>
-  <si>
-    <t>US;;IB</t>
-  </si>
-  <si>
-    <t>US;;AU</t>
+    <t>CA;;AU;;US</t>
   </si>
   <si>
     <t>US;;CA</t>
   </si>
   <si>
-    <t>US;;IL</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
+    <t>IL;;US</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
   </si>
   <si>
     <t>American Company</t>
@@ -748,25 +733,25 @@
     <t>Chinese Individual</t>
   </si>
   <si>
-    <t>구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK</t>
+    <t>国际商业机器公司;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;BARENDS RAMI;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
   </si>
   <si>
     <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
-    <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
-  </si>
-  <si>
-    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+  </si>
+  <si>
+    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP</t>
   </si>
   <si>
     <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
@@ -775,16 +760,16 @@
     <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
   </si>
   <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK</t>
+    <t>IRIDIA INC;;DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+  </si>
+  <si>
+    <t>IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
   </si>
   <si>
     <t>IRIDIA INC;;DODO OMNIDATA INC</t>
   </si>
   <si>
-    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
   </si>
   <si>
     <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
@@ -793,19 +778,19 @@
     <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
   </si>
   <si>
-    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>구글 엘엘씨;;ラミ・バレントス;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;ラミ・バレントス;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;BARENDS RAMI;;GOOGLE LLC;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;구글 엘엘씨;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+  </si>
+  <si>
+    <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
     <t>东南大学;;UNIV SOUTHEAST</t>
@@ -814,19 +799,19 @@
     <t>HITACHI LTD;;株式会社日立製作所</t>
   </si>
   <si>
-    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+    <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
   </si>
   <si>
     <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
   </si>
   <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
     <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
   </si>
   <si>
-    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+    <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
   </si>
   <si>
     <t>IUCF HYU;;한양대학교 산학협력단</t>
@@ -835,283 +820,286 @@
     <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
   </si>
   <si>
-    <t>CASTRILLO SERGIO BOIXO;;GOOGLE INC;;GOOGLE LLC;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;GOOGLE INC;;GOOGLE LLC;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
-  </si>
-  <si>
-    <t>ハルトムート・ネーヴェン;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;바엔즈 라미;;ユエゼン・ニウ;;NEVEN HELMUT;;NIU YUEZHEN;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;ライアン・バブシュ;;BARENDS RAMI;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;PRISCO JOSEPH F;;HASHEMI POUYA;;CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;LEE CHOONGHYUN;;OLIVADESE SALVATORE;;D·T·麦克鲁尔三世;;O·蒂亚尔;;STEFFEN MATTHIAS;;PHAN ANNA;;M·斯蒂芬;;ZHANG JINGYUN;;MARTIN FERNANDEZ FRANCISCO JOSE;;MCCLURE III DOUGLAS T;;LIU PENG;;GREENBERG DON;;TEMME PAUL KRISTAN;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;REZNICEK ALEXANDER;;ANDO TAKASHI;;GAMBETTA JAY;;OLIVER DIAL;;J·加姆贝塔;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;ダイアル、オリバー;;KUCZYNSKI JOSEPH;;DOUGLAS TEMPLETON MCCLURE III;;NEUMAN-HORN DEBRA A;;MATTHIAS STEFFEN;;JAY GAMBETTA;;TEMME PAUL;;BISHOP LEV;;DIAL OLIVER;;ステファン、マティアス;;PISTOIA MARCO;;ガンベッタ、ジェイ;;PHAN ANNA T;;マクルーア ザ サード、ダグラス、テンプルトン;;JAVADIABHARI ALI;;MISGEN MARVIN M;;MCCLURE III DOUGLAS TEMPLETON;;FARO SERTAGE ISMAEL;;NANNICINI GIACOMO</t>
-  </si>
-  <si>
-    <t>DAVIS ERIK JOSEPH;;SETE EYOB A;;SMITH ROBERT STANLEY;;OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;CURTIS MICHAEL;;DA SILVA MARCUS PALMER;;LYNCH ADAM DAVID;;SETE EYOB;;ZENG WILLIAM;;RUST MICHAEL;;KARALEKAS PETER JONATHAN;;ALAM MUHAMMAD SOHAIB;;DESAI ANAND;;PETERSON ERIC CHRISTOPHER;;JOHNSON BLAKE ROBERT;;HEIDEL STEVEN;;JONES GLENN;;MCKIERNAN KERI ANN;;CURTIS MICHAEL J;;RIGETTI CHAD TYLER;;REAGOR MATTHEW J;;WILSON CHRISTOPHER MOGAN</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;MACREADY WILLIAM G;;BOOTHBY KELLY T R;;XUE YANBO;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG;;ZHANG YANBO;;亨利·H·阿达姆松;;张严波;;朱正勇;;RADAMSON HENRY H;;ZHU ZHENGYONG;;王桂磊;;朱慧珑;;WANG GUILEI;;HENRY H ADAMSON</t>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>国际商业机器公司;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>구글 엘엘씨;;ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+  </si>
+  <si>
+    <t>TEMME PAUL;;KUCZYNSKI JOSEPH;;DOUGLAS TEMPLETON MCCLURE III;;OLIVADESE SALVATORE;;GREENBERG DON;;LIU PENG;;PISTOIA MARCO;;JAVADIABHARI ALI;;FARO SERTAGE ISMAEL;;TEMME PAUL KRISTAN;;O·蒂亚尔;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;ZHANG JINGYUN;;MATTHIAS STEFFEN;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A;;ステファン、マティアス;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;MARTIN FERNANDEZ FRANCISCO JOSE;;BISHOP LEV;;HEKMATSHOARTABARI BAHMAN;;CHEN RICHARD;;MISGEN MARVIN M;;DIAL OLIVER;;PHAN ANNA;;STEFFEN MATTHIAS;;D·T·麦克鲁尔三世;;LEE CHOONGHYUN;;OLIVADESE SALVATORE BERNARDO;;M·斯蒂芬;;MCCLURE III DOUGLAS TEMPLETON;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;PHAN ANNA T;;ANDO TAKASHI;;BISHOP LEV SAMUEL;;ガンベッタ、ジェイ;;GAMBETTA JAY M;;NANNICINI GIACOMO;;OLIVER DIAL;;REZNICEK ALEXANDER;;JAY GAMBETTA;;ダイアル、オリバー;;HASHEMI POUYA</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;BABBUSH RYAN;;NEVEN HARTMUT;;바엔즈 라미;;セルジオ・バイショ・カストリージョ;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;BARENDS RAMI;;ライアン・バブシュ;;NIU YUEZHEN;;ハルトムート・ネーヴェン;;ラミ・バレントス;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;エドワード・ヘンリー・ファーリ;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>MCKIERNAN KERI ANN;;ZENG WILLIAM;;CURTIS MICHAEL J;;SETE EYOB;;DESAI ANAND;;JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON;;RIGETTI CHAD TYLER;;WILSON CHRISTOPHER MOGAN;;LYNCH ADAM DAVID;;DA SILVA MARCUS PALMER;;ZENG WILLIAM J;;JONES GLENN;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL;;REAGOR MATTHEW J;;HEIDEL STEVEN;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;DAVIS ERIK JOSEPH;;PETERSON ERIC CHRISTOPHER;;ALAM MUHAMMAD SOHAIB;;RUST MICHAEL;;SMITH ROBERT STANLEY</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;ROLFE JASON;;MACREADY WILLIAM G;;XUE YANBO;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>亨利·H·阿达姆松;;HENRY H ADAMSON;;张严波;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;朱慧珑;;RADAMSON HENRY H;;王桂磊;;ZHU HUILONG;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
+  </si>
+  <si>
+    <t>MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK;;GOULD MATTHEW V;;GAHROOSI AMIR;;GOULD MATTHEW</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR</t>
+  </si>
+  <si>
+    <t>WOLKOW ROBERT;;WOLKOW ROBERT A;;HUFF TALEANA;;RASHIDI MOHAMMAD;;CROSHAW JEREMIAH;;VINE WYATT;;DIENEL THOMAS;;LIVADARU LUCIAN;;WALUS CONRAD;;RETALLICK JACOB;;WALUS KONRAD</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN;;SIPAHIGIL ALP;;EVANS RUFFIN E;;WANG SHENGTAO;;LUKIN MIKHAIL D;;SUKACHEV DENIS D;;PICHLER HANNES;;SUKACHEV DENIS;;NGUYEN CHRISTIAN THIEU;;CHOI SOONWON;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN;;LUNKIN MIKHAIL;;ZHOU LEO;;ZHOU LEO XIANGYU;;BHASKAR MIHIR;;LUKIN MIKHAIL</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN</t>
+  </si>
+  <si>
+    <t>KAPIT ELIOT</t>
+  </si>
+  <si>
+    <t>PARK YOUNG-SOO;;KIM SANG-SIK;;LIM DOO-HYEOK;;CHO JIN SUN;;WOO SOL-A;;HEO JUN;;SOHN IL KWON;;WOO SOL A;;CHO KYOUNG AH;;KIM SANG SIG;;CHO JIN-SUN;;CHO KYOUNG-AH;;LIM DOO HYEOK;;PARK YOUNG SOO</t>
+  </si>
+  <si>
+    <t>ゴットショ・リチャード・アラン;;GUHA JOYDEEP;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン;;グーハ・ジョイディープ</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;STRAUSS KARIN;;B·H·阮;;GRASS ROBERT;;CHEN WEIDA;;A·X·C·科尔;;K·施特劳斯;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;R·格拉斯</t>
+  </si>
+  <si>
+    <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>NAGLER ACHIYA;;MALKIEL ITZIK;;MREJEN MICHAEL;;WOLF LIOR;;ARIELI URI;;SUCHOWSKI HAIM</t>
+  </si>
+  <si>
+    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+  </si>
+  <si>
+    <t>JOHNSON PETER D;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;CAO YUDONG;;GONTHIER JEROME FLORIAN;;DALLAIRE-DEMERS PIERRE-LUC</t>
+  </si>
+  <si>
+    <t>FRANK IAN WARD;;DUBAY RYAN;;MAGYAR ANDREW P;;DUBAY RYAN A;;SPRACHMAN MELISSA;;FRANK IAN;;SPRACHMAN MELISSA M;;MCFARLAND KIRSTY A;;KOTZ KENNETH;;ROSENBERGER ERIN;;HUANG HAIYAO;;FAVALORA GREGG E;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;MAGYAR ANDREW;;CAVANAGH PETER;;KOTZ KENNETH T;;VARGO EMMA;;FAVALORA GREGG;;BYRNES STEVEN;;BYRNES STEVEN J</t>
+  </si>
+  <si>
+    <t>YOUNGNER DANIEL</t>
+  </si>
+  <si>
+    <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI;;GUILLOU DAVID</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES</t>
+  </si>
+  <si>
+    <t>TEMME PAUL;;OLIVADESE SALVATORE;;GREENBERG DON;;PISTOIA MARCO;;TEMME PAUL KRISTAN;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;MCCLURE III DOUGLAS T;;BISHOP LEV;;CHEN RICHARD;;DIAL OLIVER;;PHAN ANNA;;STEFFEN MATTHIAS;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS TEMPLETON;;PHAN ANNA T;;BISHOP LEV SAMUEL;;GAMBETTA JAY M;;NANNICINI GIACOMO</t>
+  </si>
+  <si>
+    <t>亨利·H·阿达姆松;;HENRY H ADAMSON;;张严波;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;朱慧珑;;王桂磊;;ZHU HUILONG;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;ROLFE JASON;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;CAI QING;;COSTA JOSE DIOGO;;COVENS KRIS;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN</t>
+  </si>
+  <si>
+    <t>TRESP VOLKER;;MA YUNPU</t>
+  </si>
+  <si>
+    <t>POOSER RAPHAEL C;;MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J</t>
+  </si>
+  <si>
+    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
+  </si>
+  <si>
+    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
+  </si>
+  <si>
+    <t>안도열;;AHN DO YEOL</t>
+  </si>
+  <si>
+    <t>GHOSH TAPABRATA</t>
+  </si>
+  <si>
+    <t>ZHOU WENLI;;WANG YUNBO;;GAO JUNXIONG;;ZHU YU;;CHENG RUNHONG;;CHEN CHANGSHENG;;WU SHUO</t>
+  </si>
+  <si>
+    <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T;;KONDASH COREY R;;MAGAR KAMAN THAPA;;REICH GREGORY W;;SLINKER KEITH;;BAUR JEFFREY W</t>
+  </si>
+  <si>
+    <t>NIVALA JEFFREY MATTHEW</t>
+  </si>
+  <si>
+    <t>YU DAN;;WANG ZEHONG;;WANG WEI;;CHEN YIXIANG</t>
+  </si>
+  <si>
+    <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
+  </si>
+  <si>
+    <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+  </si>
+  <si>
+    <t>MANSSON ALF;;TAKATSUKI HIDEYO;;DIEZ STEFAN;;KORTEN TILL;;REUTHER CORDULA</t>
+  </si>
+  <si>
+    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
+  </si>
+  <si>
+    <t>XU JUN;;LIANG RENRONG;;LIU YU;;ZHAO LINYUAN</t>
+  </si>
+  <si>
+    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+  </si>
+  <si>
+    <t>HEO KEUN;;LEE HYUNG-DONG;;LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO</t>
+  </si>
+  <si>
+    <t>YANG JIANHUA;;WU QING;;MCLEAN MARK;;XIA QIANGFEI</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>ZHANG XIANGCHENG;;WU JIAN</t>
+  </si>
+  <si>
+    <t>ZORNES DAVID</t>
+  </si>
+  <si>
+    <t>Huilong Zhu;;Zhengyong Zhu</t>
+  </si>
+  <si>
+    <t>YOUNG IAN A;;MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E</t>
+  </si>
+  <si>
+    <t>ZHU HUILONG</t>
+  </si>
+  <si>
+    <t>BABBUSH RYAN;;NEVEN HARTMUT;;바엔즈 라미;;ライアン・バブシュ;;FARHI EDWARD HENRY;;ラミ・バレントス;;BARENDS RAMI;;ハルトムート・ネーヴェン;;エドワード・ヘンリー・ファーリ</t>
+  </si>
+  <si>
+    <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;WANG GANG (A K A JOSEPH);;KOUL RAMAN;;WANG GANG;;BHAT SUMRITA;;SALAHANDISH RAZIEH</t>
+  </si>
+  <si>
+    <t>SHIMA SHOHEI</t>
+  </si>
+  <si>
+    <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;BABBUSH RYAN;;NEVEN HARTMUT;;바엔즈 라미;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;BARENDS RAMI;;ラミ・バレントス;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;フォスナー ショーン;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>CHOI JEONG WOO;;정용호;;CHUNG YONG HO;;최정우</t>
+  </si>
+  <si>
+    <t>李源;;幸研;;LI YUAN;;XING YAN;;张晋;;ZHANG HUI;;ZHANG JIN;;张辉</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;B·H·阮;;STRAUSS KARIN;;GRASS ROBERT;;CHEN WEIDA;;A·X·C·科尔;;K·施特劳斯;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;R·格拉斯</t>
+  </si>
+  <si>
+    <t>SHINKAI GOU;;新海 剛</t>
+  </si>
+  <si>
+    <t>ZHONG HAO;;李东阳;;陈奕丞;;钟豪;;JIANG YADONG;;李伟;;蒋亚东;;CHEN YICHENG;;GU DEEN;;GU DE'EN;;LI WEI;;LI DONGYANG;;顾德恩</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;신현동;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;FAROOQ AHMAD</t>
+  </si>
+  <si>
+    <t>マジャ・キャシディ;;ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>JIANG WEINAN;;YU XING</t>
+  </si>
+  <si>
+    <t>KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;YOON TAE HYUN;;윤태현;;김진배;;하키우;;트린수안텅</t>
+  </si>
+  <si>
+    <t>VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;DOORNBOS GERBEN;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーヴェン;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;エドワード・ヘンリー・ファーリ;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
   </si>
   <si>
     <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
   </si>
   <si>
-    <t>GAHROOSI AMIR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW;;MASILAMANI ASHOK;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
-  </si>
-  <si>
-    <t>WOLKOW ROBERT;;DIENEL THOMAS;;CROSHAW JEREMIAH;;VINE WYATT;;WOLKOW ROBERT A;;WALUS CONRAD;;LIVADARU LUCIAN;;RETALLICK JACOB;;RASHIDI MOHAMMAD;;HUFF TALEANA;;WALUS KONRAD</t>
-  </si>
-  <si>
-    <t>EVANS RUFFIN;;LUKIN MIKHAIL D;;WANG SHENGTAO;;LUKIN MIKHAIL;;CHOI SOONWON;;ZHOU LEO;;BHASKAR MIHIR KESHAV;;SIPAHIGIL ALP;;SUKACHEV DENIS;;PICHLER HANNES;;EVANS RUFFIN E;;LUNKIN MIKHAIL;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR;;ZHOU LEO XIANGYU;;NGUYEN CHRISTIAN;;SUKACHEV DENIS D</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J</t>
-  </si>
-  <si>
-    <t>KAPIT ELIOT</t>
-  </si>
-  <si>
-    <t>LIM DOO HYEOK;;KIM SANG-SIK;;CHO JIN SUN;;CHO JIN-SUN;;WOO SOL A;;WOO SOL-A;;SOHN IL KWON;;LIM DOO-HYEOK;;HEO JUN;;CHO KYOUNG-AH;;KIM SANG SIG;;PARK YOUNG-SOO;;PARK YOUNG SOO;;CHO KYOUNG AH</t>
-  </si>
-  <si>
-    <t>バヘディ・バヘド;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ダウガティ・ジョン;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
-  </si>
-  <si>
-    <t>GAMBLE JOHN KING;;A·X·C·科尔;;B·H·阮;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;GAMBLE IV JOHN KING;;GRANADE CHRISTOPHER EVAN;;K·施特劳斯;;WIEBE NATHAN O;;GRASS ROBERT</t>
-  </si>
-  <si>
-    <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
-  </si>
-  <si>
-    <t>MALKIEL ITZIK;;ARIELI URI;;NAGLER ACHIYA;;WOLF LIOR;;MREJEN MICHAEL;;SUCHOWSKI HAIM</t>
-  </si>
-  <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R;;CAO YUDONG</t>
-  </si>
-  <si>
-    <t>MARKOVIC STACEY;;MAGYAR ANDREW;;MCFARLAND KIRSTY;;FRANK IAN WARD;;BYRNES STEVEN;;FAVALORA GREGG E;;DUBAY RYAN A;;SPRACHMAN MELISSA M;;MCFARLAND KIRSTY A;;KOTZ KENNETH;;BYRNES STEVEN J;;MAGYAR ANDREW P;;HUANG HAIYAO;;KOTZ KENNETH T;;VARGO EMMA;;CAVANAGH PETER;;ROSENBERGER ERIN;;FRANK IAN;;SPRACHMAN MELISSA;;FAVALORA GREGG;;DUBAY RYAN</t>
-  </si>
-  <si>
-    <t>YOUNGNER DANIEL</t>
-  </si>
-  <si>
-    <t>GUILLOU DAVID;;SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
-  </si>
-  <si>
-    <t>LANDIS STEPHAN;;LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
-  </si>
-  <si>
-    <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;OLIVADESE SALVATORE;;STEFFEN MATTHIAS;;PHAN ANNA;;MCCLURE III DOUGLAS T;;GREENBERG DON;;TEMME PAUL KRISTAN;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY;;TEMME PAUL;;BISHOP LEV;;DIAL OLIVER;;PISTOIA MARCO;;PHAN ANNA T;;MCCLURE III DOUGLAS TEMPLETON;;NANNICINI GIACOMO</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG;;ZHANG YANBO;;亨利·H·阿达姆松;;张严波;;朱正勇;;ZHU ZHENGYONG;;王桂磊;;朱慧珑;;WANG GUILEI;;HENRY H ADAMSON</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>STAKENBORG TIM;;CIUBOTARU FLORIN;;CHEN CHANG;;COVENS KRIS;;FAUVART MAARTEN;;CAI QING;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
-  </si>
-  <si>
-    <t>TRESP VOLKER;;MA YUNPU</t>
-  </si>
-  <si>
-    <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
-  </si>
-  <si>
-    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
-  </si>
-  <si>
-    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
-  </si>
-  <si>
-    <t>AHN DO YEOL;;안도열</t>
-  </si>
-  <si>
-    <t>GHOSH TAPABRATA</t>
-  </si>
-  <si>
-    <t>WANG YUNBO;;ZHU YU;;WU SHUO;;CHEN CHANGSHENG;;ZHOU WENLI;;CHENG RUNHONG;;GAO JUNXIONG</t>
-  </si>
-  <si>
-    <t>WANG KAIYANG;;YAN XIAOBING;;REN DELIANG</t>
-  </si>
-  <si>
-    <t>KONDASH COREY R;;BAUR JEFFREY W;;PANKONIEN ALEXANDER M;;SLINKER KEITH;;REICH GREGORY W;;DICKINSON BENJAMIN T;;MAGAR KAMAN THAPA</t>
-  </si>
-  <si>
-    <t>NIVALA JEFFREY MATTHEW</t>
-  </si>
-  <si>
-    <t>CHEN YIXIANG;;YU DAN;;WANG ZEHONG;;WANG WEI</t>
-  </si>
-  <si>
-    <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
-  </si>
-  <si>
-    <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
-  </si>
-  <si>
-    <t>MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN</t>
-  </si>
-  <si>
-    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
-  </si>
-  <si>
-    <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
-  </si>
-  <si>
-    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
-  </si>
-  <si>
-    <t>CHOI YONG-SOO;;HEO KEUN;;CHOI YONG SOO;;LEE HYUNG-DONG;;LEE HYUNG DONG</t>
-  </si>
-  <si>
-    <t>XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA;;WU QING</t>
-  </si>
-  <si>
-    <t>AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY KELLY T R;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>WU JIAN;;ZHANG XIANGCHENG</t>
-  </si>
-  <si>
-    <t>ZORNES DAVID</t>
-  </si>
-  <si>
-    <t>Zhengyong Zhu;;Huilong Zhu</t>
-  </si>
-  <si>
-    <t>MANIPATRUNI SASIKANTH;;YOUNG IAN A;;NIKONOV DMITRI E</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG</t>
-  </si>
-  <si>
-    <t>ハルトムート・ネーヴェン;;BABBUSH RYAN;;エドワード・ヘンリー・ファーリ;;ラミ・バレントス;;바엔즈 라미;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;ライアン・バブシュ;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>MAHMOUDI MORTEZA;;CORBO CLAUDIA;;FAROKHZAD OMID</t>
-  </si>
-  <si>
-    <t>KOUL RAMAN;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;WANG GANG;;VASTAREY NIKHIL SURESH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH)</t>
-  </si>
-  <si>
-    <t>SHIMA SHOHEI</t>
-  </si>
-  <si>
-    <t>CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI;;KIM CHIHO</t>
-  </si>
-  <si>
-    <t>セルジオ・バイショ・カストリージョ;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;ラミ・バレントス;;바엔즈 라미;;CASTRILLO SERGIO BOIXO;;ユエゼン・ニウ;;NIU YUEZHEN;;NEVEN HARTMUT;;BARENDS RAMI;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>CHOI JEONG WOO;;CHUNG YONG HO;;정용호;;최정우</t>
-  </si>
-  <si>
-    <t>李源;;ZHANG JIN;;张辉;;幸研;;XING YAN;;张晋;;LI YUAN;;ZHANG HUI</t>
-  </si>
-  <si>
-    <t>A·X·C·科尔;;B·H·阮;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;K·施特劳斯;;W·陈;;GRASS ROBERT</t>
-  </si>
-  <si>
-    <t>SHINKAI GOU;;新海 剛</t>
-  </si>
-  <si>
-    <t>JIANG YADONG;;李伟;;钟豪;;LI WEI;;顾德恩;;李东阳;;陈奕丞;;蒋亚东;;CHEN YICHENG;;GU DE'EN;;GU DEEN;;LI DONGYANG;;ZHONG HAO</t>
-  </si>
-  <si>
-    <t>파쿼 아마드;;FAROOQ AHMAD;;JEONG YOUNG MIN;;신현동;;정영민;;SHIN HYUN DONG</t>
-  </si>
-  <si>
-    <t>バヘディ・バヘド;;DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;ダウガティ・ジョン;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
-  </si>
-  <si>
-    <t>JIANG WEINAN;;YU XING</t>
-  </si>
-  <si>
-    <t>HA KIEU MY;;윤태현;;하키우;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;트린수안텅;;김진배</t>
-  </si>
-  <si>
-    <t>GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;DOORNBOS GERBEN</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
-  </si>
-  <si>
-    <t>ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;ユエゼン・ニウ;;NIU YUEZHEN;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;GAMBETTA JAY;;MCCLURE III DOUGLAS T;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>ステファン、マティアス;;JAY GAMBETTA;;ガンベッタ、ジェイ;;GAMBETTA JAY;;マクルーア ザ サード、ダグラス、テンプルトン;;M·斯蒂芬;;OLIVER DIAL;;J·加姆贝塔;;ダイアル、オリバー;;DOUGLAS TEMPLETON MCCLURE III;;MCCLURE III DOUGLAS TEMPLETON;;D·T·麦克鲁尔三世;;MATTHIAS STEFFEN;;O·蒂亚尔;;DIAL OLIVER;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+    <t>ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;GAMBETTA JAY;;STEFFEN MATTHIAS</t>
+  </si>
+  <si>
+    <t>M·斯蒂芬;;MCCLURE III DOUGLAS TEMPLETON;;MATTHIAS STEFFEN;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;ガンベッタ、ジェイ;;ステファン、マティアス;;OLIVER DIAL;;JAY GAMBETTA;;O·蒂亚尔;;GAMBETTA JAY;;STEFFEN MATTHIAS;;ダイアル、オリバー;;D·T·麦克鲁尔三世</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
   </si>
   <si>
     <t>BARENDS RAMI;;ラミ・バレントス;;바엔즈 라미</t>
   </si>
   <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;CASTRILLO SERGIO BOIXO;;ユエゼン・ニウ;;NIU YUEZHEN;;NEVEN HARTMUT;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM</t>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO</t>
   </si>
   <si>
     <t>American</t>
@@ -1629,7 +1617,7 @@
         <v>151</v>
       </c>
       <c r="M2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1647,13 +1635,13 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="T2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -1694,97 +1682,97 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>12.64285714285714</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0.8345949237548312</v>
+        <v>0.7190165822573612</v>
       </c>
       <c r="F3">
-        <v>0.7068096974450839</v>
+        <v>0.9571246241229535</v>
       </c>
       <c r="G3">
-        <v>1.116957279795512</v>
+        <v>0.751852436930621</v>
       </c>
       <c r="H3">
-        <v>1.125</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
         <v>151</v>
       </c>
       <c r="L3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N3">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>239</v>
+      </c>
+      <c r="S3" t="s">
+        <v>278</v>
+      </c>
+      <c r="T3" t="s">
+        <v>362</v>
+      </c>
+      <c r="U3" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>4.666666666666666</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>2.5</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
         <v>6</v>
       </c>
-      <c r="R3" t="s">
-        <v>244</v>
-      </c>
-      <c r="S3" t="s">
-        <v>283</v>
-      </c>
-      <c r="T3" t="s">
-        <v>366</v>
-      </c>
-      <c r="U3" t="s">
-        <v>371</v>
-      </c>
-      <c r="V3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="X3">
-        <v>4</v>
-      </c>
-      <c r="Y3">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Z3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>5</v>
-      </c>
       <c r="AC3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1792,97 +1780,97 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>12.16666666666667</v>
+        <v>11.64285714285714</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0.7190165822573612</v>
+        <v>0.8345949237548312</v>
       </c>
       <c r="F4">
-        <v>0.9571246241229535</v>
+        <v>0.7615259575578296</v>
       </c>
       <c r="G4">
-        <v>0.751852436930621</v>
+        <v>1.116957279795512</v>
       </c>
       <c r="H4">
-        <v>3.066666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="s">
         <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K4" t="s">
         <v>151</v>
       </c>
       <c r="L4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" t="s">
         <v>223</v>
       </c>
-      <c r="M4" t="s">
-        <v>228</v>
-      </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O4">
-        <v>3.666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>240</v>
+      </c>
+      <c r="S4" t="s">
+        <v>279</v>
+      </c>
+      <c r="T4" t="s">
+        <v>362</v>
+      </c>
+      <c r="U4" t="s">
+        <v>367</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="Z4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
         <v>5</v>
       </c>
-      <c r="R4" t="s">
-        <v>245</v>
-      </c>
-      <c r="S4" t="s">
-        <v>284</v>
-      </c>
-      <c r="T4" t="s">
-        <v>366</v>
-      </c>
-      <c r="U4" t="s">
-        <v>371</v>
-      </c>
-      <c r="V4" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>4.666666666666666</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>2.5</v>
-      </c>
-      <c r="AA4">
-        <v>5</v>
-      </c>
-      <c r="AB4">
-        <v>6</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1911,10 +1899,10 @@
         <v>2.666666666666667</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K5" t="s">
         <v>151</v>
@@ -1923,7 +1911,7 @@
         <v>151</v>
       </c>
       <c r="M5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1941,13 +1929,13 @@
         <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="T5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -2012,7 +2000,7 @@
         <v>151</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
         <v>151</v>
@@ -2021,7 +2009,7 @@
         <v>151</v>
       </c>
       <c r="M6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2036,16 +2024,16 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="S6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="T6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -2098,7 +2086,7 @@
         <v>4.152294121129596</v>
       </c>
       <c r="F7">
-        <v>0.9252161911539538</v>
+        <v>0.925216191153954</v>
       </c>
       <c r="G7">
         <v>6.807893293974177</v>
@@ -2110,16 +2098,16 @@
         <v>151</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
         <v>160</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N7">
         <v>0.8333333333333333</v>
@@ -2134,16 +2122,16 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="S7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="T7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V7" t="b">
         <v>0</v>
@@ -2184,7 +2172,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>4.333333333333333</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2196,7 +2184,7 @@
         <v>1.781512605042017</v>
       </c>
       <c r="F8">
-        <v>0.7876372766401462</v>
+        <v>0.7876372766401459</v>
       </c>
       <c r="G8">
         <v>1.877367770637667</v>
@@ -2205,19 +2193,19 @@
         <v>0.6</v>
       </c>
       <c r="I8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
         <v>151</v>
       </c>
       <c r="L8" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="M8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2232,22 +2220,22 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="S8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="T8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>4.333333333333333</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2300,16 +2288,16 @@
         <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K9" t="s">
         <v>151</v>
       </c>
       <c r="L9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" t="s">
         <v>223</v>
-      </c>
-      <c r="M9" t="s">
-        <v>228</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2327,13 +2315,13 @@
         <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="T9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V9" t="b">
         <v>0</v>
@@ -2398,7 +2386,7 @@
         <v>151</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K10" t="s">
         <v>151</v>
@@ -2407,7 +2395,7 @@
         <v>151</v>
       </c>
       <c r="M10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2425,13 +2413,13 @@
         <v>40</v>
       </c>
       <c r="S10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="T10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -2487,19 +2475,19 @@
         <v>2.75</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K11" t="s">
         <v>151</v>
       </c>
       <c r="L11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2517,13 +2505,13 @@
         <v>41</v>
       </c>
       <c r="S11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="T11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -2579,10 +2567,10 @@
         <v>4.25</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K12" t="s">
         <v>151</v>
@@ -2591,7 +2579,7 @@
         <v>151</v>
       </c>
       <c r="M12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2609,13 +2597,13 @@
         <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="T12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -2674,7 +2662,7 @@
         <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K13" t="s">
         <v>151</v>
@@ -2683,7 +2671,7 @@
         <v>151</v>
       </c>
       <c r="M13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2698,16 +2686,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="S13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="T13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
@@ -2781,7 +2769,7 @@
         <v>151</v>
       </c>
       <c r="M14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2796,16 +2784,16 @@
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S14" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="T14" t="s">
+        <v>362</v>
+      </c>
+      <c r="U14" t="s">
         <v>366</v>
-      </c>
-      <c r="U14" t="s">
-        <v>370</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -2879,7 +2867,7 @@
         <v>151</v>
       </c>
       <c r="M15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2900,10 +2888,10 @@
         <v>45</v>
       </c>
       <c r="T15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V15" t="b">
         <v>1</v>
@@ -2962,7 +2950,7 @@
         <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
         <v>151</v>
@@ -2971,7 +2959,7 @@
         <v>151</v>
       </c>
       <c r="M16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2989,13 +2977,13 @@
         <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="T16" t="s">
+        <v>362</v>
+      </c>
+      <c r="U16" t="s">
         <v>366</v>
-      </c>
-      <c r="U16" t="s">
-        <v>370</v>
       </c>
       <c r="V16" t="b">
         <v>0</v>
@@ -3060,7 +3048,7 @@
         <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
         <v>168</v>
@@ -3069,7 +3057,7 @@
         <v>168</v>
       </c>
       <c r="M17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3087,13 +3075,13 @@
         <v>47</v>
       </c>
       <c r="S17" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="T17" t="s">
+        <v>364</v>
+      </c>
+      <c r="U17" t="s">
         <v>368</v>
-      </c>
-      <c r="U17" t="s">
-        <v>372</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -3158,7 +3146,7 @@
         <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
         <v>151</v>
@@ -3167,7 +3155,7 @@
         <v>151</v>
       </c>
       <c r="M18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3182,16 +3170,16 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S18" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="T18" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -3241,7 +3229,7 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>1.047526829268292</v>
+        <v>1.047526829268293</v>
       </c>
       <c r="H19">
         <v>4.666666666666667</v>
@@ -3250,7 +3238,7 @@
         <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
         <v>151</v>
@@ -3259,7 +3247,7 @@
         <v>151</v>
       </c>
       <c r="M19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3274,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="T19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -3348,7 +3336,7 @@
         <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
         <v>151</v>
@@ -3357,7 +3345,7 @@
         <v>151</v>
       </c>
       <c r="M20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3372,16 +3360,16 @@
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="T20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -3443,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
         <v>156</v>
@@ -3452,10 +3440,10 @@
         <v>151</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3473,13 +3461,13 @@
         <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="T21" t="s">
+        <v>364</v>
+      </c>
+      <c r="U21" t="s">
         <v>368</v>
-      </c>
-      <c r="U21" t="s">
-        <v>372</v>
       </c>
       <c r="V21" t="b">
         <v>0</v>
@@ -3535,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J22" t="s">
         <v>156</v>
@@ -3544,10 +3532,10 @@
         <v>151</v>
       </c>
       <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s">
         <v>225</v>
-      </c>
-      <c r="M22" t="s">
-        <v>230</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -3565,13 +3553,13 @@
         <v>52</v>
       </c>
       <c r="S22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="T22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -3627,10 +3615,10 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K23" t="s">
         <v>151</v>
@@ -3639,7 +3627,7 @@
         <v>151</v>
       </c>
       <c r="M23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3657,13 +3645,13 @@
         <v>53</v>
       </c>
       <c r="S23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="T23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U23" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V23" t="b">
         <v>0</v>
@@ -3719,7 +3707,7 @@
         <v>10.5</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -3731,7 +3719,7 @@
         <v>151</v>
       </c>
       <c r="M24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3749,13 +3737,13 @@
         <v>54</v>
       </c>
       <c r="S24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="T24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U24" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -3820,7 +3808,7 @@
         <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="K25" t="s">
         <v>151</v>
@@ -3829,7 +3817,7 @@
         <v>151</v>
       </c>
       <c r="M25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3847,13 +3835,13 @@
         <v>55</v>
       </c>
       <c r="S25" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="T25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U25" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
@@ -3915,7 +3903,7 @@
         <v>1.5</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" t="s">
         <v>156</v>
@@ -3927,7 +3915,7 @@
         <v>151</v>
       </c>
       <c r="M26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3945,13 +3933,13 @@
         <v>56</v>
       </c>
       <c r="S26" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="T26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U26" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
@@ -4016,16 +4004,16 @@
         <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4043,13 +4031,13 @@
         <v>57</v>
       </c>
       <c r="S27" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="T27" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V27" t="b">
         <v>0</v>
@@ -4114,16 +4102,16 @@
         <v>159</v>
       </c>
       <c r="J28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4141,13 +4129,13 @@
         <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="T28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V28" t="b">
         <v>0</v>
@@ -4221,7 +4209,7 @@
         <v>151</v>
       </c>
       <c r="M29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -4236,16 +4224,16 @@
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S29" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="T29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -4310,7 +4298,7 @@
         <v>160</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s">
         <v>160</v>
@@ -4319,7 +4307,7 @@
         <v>160</v>
       </c>
       <c r="M30" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N30">
         <v>0.8333333333333333</v>
@@ -4334,16 +4322,16 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="S30" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="T30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V30" t="b">
         <v>0</v>
@@ -4405,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J31" t="s">
         <v>156</v>
@@ -4417,7 +4405,7 @@
         <v>151</v>
       </c>
       <c r="M31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -4432,16 +4420,16 @@
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="S31" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="T31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -4503,10 +4491,10 @@
         <v>4.5</v>
       </c>
       <c r="I32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K32" t="s">
         <v>151</v>
@@ -4515,7 +4503,7 @@
         <v>151</v>
       </c>
       <c r="M32" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4530,16 +4518,16 @@
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="S32" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="T32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -4598,16 +4586,16 @@
         <v>161</v>
       </c>
       <c r="J33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -4622,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S33" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="T33" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -4699,7 +4687,7 @@
         <v>151</v>
       </c>
       <c r="M34" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -4717,13 +4705,13 @@
         <v>64</v>
       </c>
       <c r="S34" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="T34" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U34" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V34" t="b">
         <v>0</v>
@@ -4791,7 +4779,7 @@
         <v>151</v>
       </c>
       <c r="M35" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -4809,13 +4797,13 @@
         <v>65</v>
       </c>
       <c r="S35" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="T35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U35" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -4871,10 +4859,10 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K36" t="s">
         <v>151</v>
@@ -4883,7 +4871,7 @@
         <v>151</v>
       </c>
       <c r="M36" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -4901,13 +4889,13 @@
         <v>66</v>
       </c>
       <c r="S36" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="T36" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U36" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -4975,7 +4963,7 @@
         <v>151</v>
       </c>
       <c r="M37" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4993,13 +4981,13 @@
         <v>67</v>
       </c>
       <c r="S37" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T37" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -5073,7 +5061,7 @@
         <v>168</v>
       </c>
       <c r="M38" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -5088,16 +5076,16 @@
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="S38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="T38" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U38" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V38" t="b">
         <v>0</v>
@@ -5165,7 +5153,7 @@
         <v>151</v>
       </c>
       <c r="M39" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5183,13 +5171,13 @@
         <v>69</v>
       </c>
       <c r="S39" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="T39" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V39" t="b">
         <v>0</v>
@@ -5257,7 +5245,7 @@
         <v>160</v>
       </c>
       <c r="M40" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -5275,13 +5263,13 @@
         <v>70</v>
       </c>
       <c r="S40" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="T40" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -5340,7 +5328,7 @@
         <v>163</v>
       </c>
       <c r="J41" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s">
         <v>160</v>
@@ -5349,7 +5337,7 @@
         <v>160</v>
       </c>
       <c r="M41" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -5367,13 +5355,13 @@
         <v>71</v>
       </c>
       <c r="S41" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="T41" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -5441,7 +5429,7 @@
         <v>151</v>
       </c>
       <c r="M42" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -5459,13 +5447,13 @@
         <v>72</v>
       </c>
       <c r="S42" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="T42" t="s">
+        <v>362</v>
+      </c>
+      <c r="U42" t="s">
         <v>366</v>
-      </c>
-      <c r="U42" t="s">
-        <v>370</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
@@ -5521,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K43" t="s">
         <v>151</v>
@@ -5533,7 +5521,7 @@
         <v>151</v>
       </c>
       <c r="M43" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -5551,13 +5539,13 @@
         <v>73</v>
       </c>
       <c r="S43" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="T43" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
@@ -5625,7 +5613,7 @@
         <v>160</v>
       </c>
       <c r="M44" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -5643,13 +5631,13 @@
         <v>74</v>
       </c>
       <c r="S44" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="T44" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V44" t="b">
         <v>0</v>
@@ -5717,7 +5705,7 @@
         <v>151</v>
       </c>
       <c r="M45" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -5735,13 +5723,13 @@
         <v>75</v>
       </c>
       <c r="S45" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="T45" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U45" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -5809,7 +5797,7 @@
         <v>151</v>
       </c>
       <c r="M46" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -5827,13 +5815,13 @@
         <v>76</v>
       </c>
       <c r="S46" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="T46" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V46" t="b">
         <v>0</v>
@@ -5895,19 +5883,19 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M47" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -5925,13 +5913,13 @@
         <v>77</v>
       </c>
       <c r="S47" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="T47" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U47" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V47" t="b">
         <v>0</v>
@@ -5987,19 +5975,19 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -6017,13 +6005,13 @@
         <v>78</v>
       </c>
       <c r="S48" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="T48" t="s">
+        <v>364</v>
+      </c>
+      <c r="U48" t="s">
         <v>368</v>
-      </c>
-      <c r="U48" t="s">
-        <v>372</v>
       </c>
       <c r="V48" t="b">
         <v>0</v>
@@ -6091,7 +6079,7 @@
         <v>160</v>
       </c>
       <c r="M49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -6109,13 +6097,13 @@
         <v>79</v>
       </c>
       <c r="S49" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="T49" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U49" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V49" t="b">
         <v>0</v>
@@ -6183,7 +6171,7 @@
         <v>151</v>
       </c>
       <c r="M50" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -6201,13 +6189,13 @@
         <v>80</v>
       </c>
       <c r="S50" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="T50" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U50" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V50" t="b">
         <v>0</v>
@@ -6281,7 +6269,7 @@
         <v>168</v>
       </c>
       <c r="M51" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -6299,13 +6287,13 @@
         <v>81</v>
       </c>
       <c r="S51" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="T51" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U51" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V51" t="b">
         <v>0</v>
@@ -6373,7 +6361,7 @@
         <v>151</v>
       </c>
       <c r="M52" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -6391,13 +6379,13 @@
         <v>82</v>
       </c>
       <c r="S52" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="T52" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V52" t="b">
         <v>0</v>
@@ -6471,7 +6459,7 @@
         <v>151</v>
       </c>
       <c r="M53" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -6486,16 +6474,16 @@
         <v>1</v>
       </c>
       <c r="R53" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="S53" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="T53" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U53" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V53" t="b">
         <v>1</v>
@@ -6563,7 +6551,7 @@
         <v>160</v>
       </c>
       <c r="M54" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -6581,13 +6569,13 @@
         <v>84</v>
       </c>
       <c r="S54" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="T54" t="s">
+        <v>363</v>
+      </c>
+      <c r="U54" t="s">
         <v>367</v>
-      </c>
-      <c r="U54" t="s">
-        <v>371</v>
       </c>
       <c r="V54" t="b">
         <v>0</v>
@@ -6643,10 +6631,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K55" t="s">
         <v>151</v>
@@ -6655,7 +6643,7 @@
         <v>151</v>
       </c>
       <c r="M55" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -6673,13 +6661,13 @@
         <v>85</v>
       </c>
       <c r="S55" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="T55" t="s">
+        <v>362</v>
+      </c>
+      <c r="U55" t="s">
         <v>366</v>
-      </c>
-      <c r="U55" t="s">
-        <v>370</v>
       </c>
       <c r="V55" t="b">
         <v>0</v>
@@ -6747,7 +6735,7 @@
         <v>160</v>
       </c>
       <c r="M56" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -6765,13 +6753,13 @@
         <v>86</v>
       </c>
       <c r="S56" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="T56" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U56" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V56" t="b">
         <v>0</v>
@@ -6845,7 +6833,7 @@
         <v>168</v>
       </c>
       <c r="M57" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -6860,16 +6848,16 @@
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="S57" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="T57" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U57" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V57" t="b">
         <v>0</v>
@@ -6931,10 +6919,10 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K58" t="s">
         <v>151</v>
@@ -6943,7 +6931,7 @@
         <v>151</v>
       </c>
       <c r="M58" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -6961,13 +6949,13 @@
         <v>88</v>
       </c>
       <c r="S58" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="T58" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U58" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V58" t="b">
         <v>0</v>
@@ -7035,7 +7023,7 @@
         <v>160</v>
       </c>
       <c r="M59" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -7053,13 +7041,13 @@
         <v>89</v>
       </c>
       <c r="S59" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="T59" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U59" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V59" t="b">
         <v>0</v>
@@ -7124,7 +7112,7 @@
         <v>164</v>
       </c>
       <c r="J60" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s">
         <v>151</v>
@@ -7133,7 +7121,7 @@
         <v>151</v>
       </c>
       <c r="M60" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N60">
         <v>0.1666666666666667</v>
@@ -7148,16 +7136,16 @@
         <v>3</v>
       </c>
       <c r="R60" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="S60" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="T60" t="s">
+        <v>362</v>
+      </c>
+      <c r="U60" t="s">
         <v>366</v>
-      </c>
-      <c r="U60" t="s">
-        <v>370</v>
       </c>
       <c r="V60" t="b">
         <v>0</v>
@@ -7225,7 +7213,7 @@
         <v>151</v>
       </c>
       <c r="M61" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -7243,13 +7231,13 @@
         <v>91</v>
       </c>
       <c r="S61" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="T61" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U61" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V61" t="b">
         <v>0</v>
@@ -7308,7 +7296,7 @@
         <v>165</v>
       </c>
       <c r="J62" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="K62" t="s">
         <v>151</v>
@@ -7317,7 +7305,7 @@
         <v>151</v>
       </c>
       <c r="M62" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -7335,13 +7323,13 @@
         <v>92</v>
       </c>
       <c r="S62" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="T62" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V62" t="b">
         <v>0</v>
@@ -7400,16 +7388,16 @@
         <v>166</v>
       </c>
       <c r="J63" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="K63" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M63" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -7427,13 +7415,13 @@
         <v>93</v>
       </c>
       <c r="S63" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="T63" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V63" t="b">
         <v>0</v>
@@ -7489,10 +7477,10 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K64" t="s">
         <v>151</v>
@@ -7501,7 +7489,7 @@
         <v>151</v>
       </c>
       <c r="M64" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -7519,13 +7507,13 @@
         <v>94</v>
       </c>
       <c r="S64" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="T64" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V64" t="b">
         <v>0</v>
@@ -7590,7 +7578,7 @@
         <v>156</v>
       </c>
       <c r="J65" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K65" t="s">
         <v>151</v>
@@ -7599,7 +7587,7 @@
         <v>151</v>
       </c>
       <c r="M65" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N65">
         <v>0.1666666666666667</v>
@@ -7614,16 +7602,16 @@
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="S65" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="T65" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U65" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V65" t="b">
         <v>0</v>
@@ -7688,16 +7676,16 @@
         <v>167</v>
       </c>
       <c r="J66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K66" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L66" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M66" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -7712,16 +7700,16 @@
         <v>2</v>
       </c>
       <c r="R66" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="S66" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="T66" t="s">
+        <v>364</v>
+      </c>
+      <c r="U66" t="s">
         <v>368</v>
-      </c>
-      <c r="U66" t="s">
-        <v>372</v>
       </c>
       <c r="V66" t="b">
         <v>0</v>
@@ -7795,7 +7783,7 @@
         <v>168</v>
       </c>
       <c r="M67" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -7810,16 +7798,16 @@
         <v>1</v>
       </c>
       <c r="R67" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S67" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="T67" t="s">
+        <v>364</v>
+      </c>
+      <c r="U67" t="s">
         <v>368</v>
-      </c>
-      <c r="U67" t="s">
-        <v>372</v>
       </c>
       <c r="V67" t="b">
         <v>0</v>
@@ -7893,7 +7881,7 @@
         <v>160</v>
       </c>
       <c r="M68" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -7908,16 +7896,16 @@
         <v>1</v>
       </c>
       <c r="R68" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="S68" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="T68" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U68" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V68" t="b">
         <v>0</v>
@@ -7991,7 +7979,7 @@
         <v>160</v>
       </c>
       <c r="M69" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -8006,16 +7994,16 @@
         <v>1</v>
       </c>
       <c r="R69" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="S69" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="T69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U69" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V69" t="b">
         <v>0</v>
@@ -8074,7 +8062,7 @@
         <v>169</v>
       </c>
       <c r="J70" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="K70" t="s">
         <v>151</v>
@@ -8083,7 +8071,7 @@
         <v>151</v>
       </c>
       <c r="M70" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -8098,16 +8086,16 @@
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S70" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="T70" t="s">
+        <v>362</v>
+      </c>
+      <c r="U70" t="s">
         <v>366</v>
-      </c>
-      <c r="U70" t="s">
-        <v>370</v>
       </c>
       <c r="V70" t="b">
         <v>0</v>
@@ -8166,16 +8154,16 @@
         <v>170</v>
       </c>
       <c r="J71" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="K71" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M71" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -8190,16 +8178,16 @@
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="S71" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="T71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U71" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V71" t="b">
         <v>0</v>
@@ -8264,7 +8252,7 @@
         <v>163</v>
       </c>
       <c r="J72" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s">
         <v>160</v>
@@ -8273,7 +8261,7 @@
         <v>160</v>
       </c>
       <c r="M72" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -8288,16 +8276,16 @@
         <v>1</v>
       </c>
       <c r="R72" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S72" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="T72" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U72" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V72" t="b">
         <v>0</v>
@@ -8365,7 +8353,7 @@
         <v>168</v>
       </c>
       <c r="M73" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -8380,16 +8368,16 @@
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="S73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="T73" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U73" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V73" t="b">
         <v>0</v>
@@ -8448,7 +8436,7 @@
         <v>171</v>
       </c>
       <c r="J74" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K74" t="s">
         <v>151</v>
@@ -8457,7 +8445,7 @@
         <v>151</v>
       </c>
       <c r="M74" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -8472,16 +8460,16 @@
         <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="S74" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="T74" t="s">
+        <v>362</v>
+      </c>
+      <c r="U74" t="s">
         <v>366</v>
-      </c>
-      <c r="U74" t="s">
-        <v>370</v>
       </c>
       <c r="V74" t="b">
         <v>0</v>
@@ -8555,7 +8543,7 @@
         <v>168</v>
       </c>
       <c r="M75" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -8570,16 +8558,16 @@
         <v>1</v>
       </c>
       <c r="R75" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S75" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="T75" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U75" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V75" t="b">
         <v>0</v>
@@ -8644,16 +8632,16 @@
         <v>172</v>
       </c>
       <c r="J76" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K76" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L76" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M76" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -8668,16 +8656,16 @@
         <v>1</v>
       </c>
       <c r="R76" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="S76" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="T76" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U76" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V76" t="b">
         <v>0</v>
@@ -8742,7 +8730,7 @@
         <v>173</v>
       </c>
       <c r="J77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K77" t="s">
         <v>151</v>
@@ -8751,7 +8739,7 @@
         <v>151</v>
       </c>
       <c r="M77" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -8766,16 +8754,16 @@
         <v>1</v>
       </c>
       <c r="R77" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="S77" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="T77" t="s">
+        <v>362</v>
+      </c>
+      <c r="U77" t="s">
         <v>366</v>
-      </c>
-      <c r="U77" t="s">
-        <v>370</v>
       </c>
       <c r="V77" t="b">
         <v>0</v>
@@ -8843,7 +8831,7 @@
         <v>160</v>
       </c>
       <c r="M78" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -8858,16 +8846,16 @@
         <v>0</v>
       </c>
       <c r="R78" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S78" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="T78" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U78" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V78" t="b">
         <v>0</v>
@@ -8941,7 +8929,7 @@
         <v>168</v>
       </c>
       <c r="M79" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -8956,16 +8944,16 @@
         <v>1</v>
       </c>
       <c r="R79" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S79" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="T79" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U79" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V79" t="b">
         <v>0</v>
@@ -9039,7 +9027,7 @@
         <v>168</v>
       </c>
       <c r="M80" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -9054,16 +9042,16 @@
         <v>1</v>
       </c>
       <c r="R80" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S80" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="T80" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V80" t="b">
         <v>0</v>
@@ -9128,7 +9116,7 @@
         <v>163</v>
       </c>
       <c r="J81" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s">
         <v>160</v>
@@ -9137,7 +9125,7 @@
         <v>160</v>
       </c>
       <c r="M81" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -9152,16 +9140,16 @@
         <v>1</v>
       </c>
       <c r="R81" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S81" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="T81" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U81" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V81" t="b">
         <v>0</v>
@@ -9220,7 +9208,7 @@
         <v>174</v>
       </c>
       <c r="J82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K82" t="s">
         <v>151</v>
@@ -9229,7 +9217,7 @@
         <v>151</v>
       </c>
       <c r="M82" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -9244,16 +9232,16 @@
         <v>0</v>
       </c>
       <c r="R82" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="S82" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="T82" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U82" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V82" t="b">
         <v>0</v>
@@ -9312,7 +9300,7 @@
         <v>174</v>
       </c>
       <c r="J83" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K83" t="s">
         <v>151</v>
@@ -9321,7 +9309,7 @@
         <v>151</v>
       </c>
       <c r="M83" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -9336,16 +9324,16 @@
         <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="S83" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="T83" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U83" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V83" t="b">
         <v>0</v>
@@ -9404,7 +9392,7 @@
         <v>175</v>
       </c>
       <c r="J84" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K84" t="s">
         <v>151</v>
@@ -9413,7 +9401,7 @@
         <v>151</v>
       </c>
       <c r="M84" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -9428,16 +9416,16 @@
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="S84" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="T84" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U84" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V84" t="b">
         <v>0</v>
@@ -9505,7 +9493,7 @@
         <v>168</v>
       </c>
       <c r="M85" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -9520,16 +9508,16 @@
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="S85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="T85" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U85" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V85" t="b">
         <v>0</v>
@@ -9588,16 +9576,16 @@
         <v>170</v>
       </c>
       <c r="J86" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="K86" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L86" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M86" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -9612,16 +9600,16 @@
         <v>0</v>
       </c>
       <c r="R86" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="S86" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="T86" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U86" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V86" t="b">
         <v>0</v>
@@ -9689,7 +9677,7 @@
         <v>160</v>
       </c>
       <c r="M87" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -9704,16 +9692,16 @@
         <v>0</v>
       </c>
       <c r="R87" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S87" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="T87" t="s">
+        <v>363</v>
+      </c>
+      <c r="U87" t="s">
         <v>367</v>
-      </c>
-      <c r="U87" t="s">
-        <v>371</v>
       </c>
       <c r="V87" t="b">
         <v>0</v>
@@ -9775,10 +9763,10 @@
         <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="J88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K88" t="s">
         <v>151</v>
@@ -9787,7 +9775,7 @@
         <v>151</v>
       </c>
       <c r="M88" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -9802,16 +9790,16 @@
         <v>1</v>
       </c>
       <c r="R88" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="S88" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="T88" t="s">
+        <v>362</v>
+      </c>
+      <c r="U88" t="s">
         <v>366</v>
-      </c>
-      <c r="U88" t="s">
-        <v>370</v>
       </c>
       <c r="V88" t="b">
         <v>0</v>
@@ -9876,16 +9864,16 @@
         <v>168</v>
       </c>
       <c r="J89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K89" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L89" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M89" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -9900,16 +9888,16 @@
         <v>1</v>
       </c>
       <c r="R89" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="S89" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="T89" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U89" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V89" t="b">
         <v>0</v>
@@ -9974,16 +9962,16 @@
         <v>168</v>
       </c>
       <c r="J90" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K90" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L90" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M90" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -9998,16 +9986,16 @@
         <v>1</v>
       </c>
       <c r="R90" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="S90" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="T90" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U90" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V90" t="b">
         <v>1</v>
@@ -10069,10 +10057,10 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J91" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K91" t="s">
         <v>151</v>
@@ -10081,7 +10069,7 @@
         <v>151</v>
       </c>
       <c r="M91" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -10096,16 +10084,16 @@
         <v>1</v>
       </c>
       <c r="R91" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="S91" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
       <c r="T91" t="s">
+        <v>362</v>
+      </c>
+      <c r="U91" t="s">
         <v>366</v>
-      </c>
-      <c r="U91" t="s">
-        <v>370</v>
       </c>
       <c r="V91" t="b">
         <v>0</v>
@@ -10164,16 +10152,16 @@
         <v>161</v>
       </c>
       <c r="J92" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="K92" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L92" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M92" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -10188,16 +10176,16 @@
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S92" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="T92" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U92" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V92" t="b">
         <v>0</v>
@@ -10271,7 +10259,7 @@
         <v>151</v>
       </c>
       <c r="M93" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -10286,16 +10274,16 @@
         <v>1</v>
       </c>
       <c r="R93" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="S93" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="T93" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U93" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V93" t="b">
         <v>0</v>
@@ -10354,16 +10342,16 @@
         <v>161</v>
       </c>
       <c r="J94" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="K94" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L94" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -10378,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="R94" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S94" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="T94" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U94" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V94" t="b">
         <v>0</v>
@@ -10449,19 +10437,19 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J95" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K95" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L95" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M95" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -10476,16 +10464,16 @@
         <v>1</v>
       </c>
       <c r="R95" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S95" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="T95" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="U95" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V95" t="b">
         <v>0</v>
@@ -10547,10 +10535,10 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J96" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K96" t="s">
         <v>151</v>
@@ -10559,7 +10547,7 @@
         <v>151</v>
       </c>
       <c r="M96" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -10574,16 +10562,16 @@
         <v>1</v>
       </c>
       <c r="R96" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="S96" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
       <c r="T96" t="s">
+        <v>362</v>
+      </c>
+      <c r="U96" t="s">
         <v>366</v>
-      </c>
-      <c r="U96" t="s">
-        <v>370</v>
       </c>
       <c r="V96" t="b">
         <v>0</v>
@@ -10648,7 +10636,7 @@
         <v>163</v>
       </c>
       <c r="J97" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K97" t="s">
         <v>160</v>
@@ -10657,7 +10645,7 @@
         <v>160</v>
       </c>
       <c r="M97" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N97">
         <v>0.3333333333333333</v>
@@ -10672,16 +10660,16 @@
         <v>1</v>
       </c>
       <c r="R97" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="S97" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="T97" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U97" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V97" t="b">
         <v>0</v>
@@ -10743,19 +10731,19 @@
         <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J98" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K98" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L98" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M98" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -10770,16 +10758,16 @@
         <v>1</v>
       </c>
       <c r="R98" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S98" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="T98" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="U98" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V98" t="b">
         <v>0</v>
@@ -10841,13 +10829,13 @@
         <v>168</v>
       </c>
       <c r="K99" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L99" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -10862,16 +10850,16 @@
         <v>0</v>
       </c>
       <c r="R99" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="S99" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="T99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U99" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V99" t="b">
         <v>1</v>
@@ -10933,19 +10921,19 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K100" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L100" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M100" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -10960,16 +10948,16 @@
         <v>1</v>
       </c>
       <c r="R100" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S100" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="T100" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U100" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V100" t="b">
         <v>1</v>
@@ -11031,19 +11019,19 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K101" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L101" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M101" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -11058,16 +11046,16 @@
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S101" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="T101" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U101" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V101" t="b">
         <v>1</v>
@@ -11129,13 +11117,13 @@
         <v>168</v>
       </c>
       <c r="K102" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L102" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M102" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -11150,16 +11138,16 @@
         <v>0</v>
       </c>
       <c r="R102" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="S102" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="T102" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U102" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V102" t="b">
         <v>0</v>
@@ -11221,19 +11209,19 @@
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K103" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L103" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M103" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -11248,16 +11236,16 @@
         <v>1</v>
       </c>
       <c r="R103" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S103" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="T103" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U103" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V103" t="b">
         <v>1</v>
@@ -11331,7 +11319,7 @@
         <v>151</v>
       </c>
       <c r="M104" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -11346,16 +11334,16 @@
         <v>1</v>
       </c>
       <c r="R104" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S104" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="T104" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U104" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V104" t="b">
         <v>1</v>
@@ -11429,7 +11417,7 @@
         <v>151</v>
       </c>
       <c r="M105" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -11444,16 +11432,16 @@
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S105" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="T105" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U105" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V105" t="b">
         <v>1</v>
@@ -11527,7 +11515,7 @@
         <v>151</v>
       </c>
       <c r="M106" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -11542,16 +11530,16 @@
         <v>1</v>
       </c>
       <c r="R106" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S106" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="T106" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U106" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V106" t="b">
         <v>1</v>
@@ -11613,10 +11601,10 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J107" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K107" t="s">
         <v>151</v>
@@ -11625,7 +11613,7 @@
         <v>151</v>
       </c>
       <c r="M107" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N107">
         <v>0.1666666666666667</v>
@@ -11640,16 +11628,16 @@
         <v>1</v>
       </c>
       <c r="R107" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S107" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="T107" t="s">
+        <v>362</v>
+      </c>
+      <c r="U107" t="s">
         <v>366</v>
-      </c>
-      <c r="U107" t="s">
-        <v>370</v>
       </c>
       <c r="V107" t="b">
         <v>0</v>
@@ -11711,10 +11699,10 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J108" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K108" t="s">
         <v>151</v>
@@ -11723,7 +11711,7 @@
         <v>151</v>
       </c>
       <c r="M108" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N108">
         <v>0.1666666666666667</v>
@@ -11738,16 +11726,16 @@
         <v>1</v>
       </c>
       <c r="R108" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S108" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="T108" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U108" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V108" t="b">
         <v>1</v>
@@ -11821,7 +11809,7 @@
         <v>151</v>
       </c>
       <c r="M109" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -11836,16 +11824,16 @@
         <v>1</v>
       </c>
       <c r="R109" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S109" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="T109" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U109" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V109" t="b">
         <v>1</v>
@@ -11907,10 +11895,10 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J110" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K110" t="s">
         <v>151</v>
@@ -11919,7 +11907,7 @@
         <v>151</v>
       </c>
       <c r="M110" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N110">
         <v>0.1666666666666667</v>
@@ -11934,16 +11922,16 @@
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S110" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="T110" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U110" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V110" t="b">
         <v>1</v>
@@ -12017,7 +12005,7 @@
         <v>151</v>
       </c>
       <c r="M111" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -12032,16 +12020,16 @@
         <v>1</v>
       </c>
       <c r="R111" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S111" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="T111" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U111" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V111" t="b">
         <v>1</v>
@@ -12103,19 +12091,19 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M112" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -12130,16 +12118,16 @@
         <v>1</v>
       </c>
       <c r="R112" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S112" t="s">
+        <v>360</v>
+      </c>
+      <c r="T112" t="s">
         <v>364</v>
       </c>
-      <c r="T112" t="s">
-        <v>368</v>
-      </c>
       <c r="U112" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V112" t="b">
         <v>0</v>
@@ -12201,19 +12189,19 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J113" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K113" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L113" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M113" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -12228,16 +12216,16 @@
         <v>1</v>
       </c>
       <c r="R113" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S113" t="s">
+        <v>360</v>
+      </c>
+      <c r="T113" t="s">
         <v>364</v>
       </c>
-      <c r="T113" t="s">
-        <v>368</v>
-      </c>
       <c r="U113" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V113" t="b">
         <v>0</v>
@@ -12299,19 +12287,19 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J114" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K114" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L114" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M114" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -12326,16 +12314,16 @@
         <v>1</v>
       </c>
       <c r="R114" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S114" t="s">
+        <v>360</v>
+      </c>
+      <c r="T114" t="s">
         <v>364</v>
       </c>
-      <c r="T114" t="s">
-        <v>368</v>
-      </c>
       <c r="U114" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V114" t="b">
         <v>1</v>
@@ -12391,10 +12379,10 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K115" t="s">
         <v>151</v>
@@ -12403,7 +12391,7 @@
         <v>151</v>
       </c>
       <c r="M115" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -12418,16 +12406,16 @@
         <v>0</v>
       </c>
       <c r="R115" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S115" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T115" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U115" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V115" t="b">
         <v>1</v>
@@ -12483,10 +12471,10 @@
         <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K116" t="s">
         <v>151</v>
@@ -12495,7 +12483,7 @@
         <v>151</v>
       </c>
       <c r="M116" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -12510,16 +12498,16 @@
         <v>0</v>
       </c>
       <c r="R116" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S116" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T116" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U116" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V116" t="b">
         <v>1</v>
@@ -12581,19 +12569,19 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M117" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -12608,16 +12596,16 @@
         <v>1</v>
       </c>
       <c r="R117" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S117" t="s">
+        <v>360</v>
+      </c>
+      <c r="T117" t="s">
         <v>364</v>
       </c>
-      <c r="T117" t="s">
-        <v>368</v>
-      </c>
       <c r="U117" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="V117" t="b">
         <v>0</v>
@@ -12673,10 +12661,10 @@
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J118" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K118" t="s">
         <v>151</v>
@@ -12685,7 +12673,7 @@
         <v>151</v>
       </c>
       <c r="M118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -12700,16 +12688,16 @@
         <v>0</v>
       </c>
       <c r="R118" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S118" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T118" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U118" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V118" t="b">
         <v>1</v>
@@ -12765,10 +12753,10 @@
         <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J119" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K119" t="s">
         <v>151</v>
@@ -12777,7 +12765,7 @@
         <v>151</v>
       </c>
       <c r="M119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -12792,16 +12780,16 @@
         <v>0</v>
       </c>
       <c r="R119" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S119" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T119" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="U119" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V119" t="b">
         <v>1</v>
@@ -12863,19 +12851,19 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J120" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K120" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L120" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -12890,16 +12878,16 @@
         <v>1</v>
       </c>
       <c r="R120" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S120" t="s">
+        <v>360</v>
+      </c>
+      <c r="T120" t="s">
         <v>364</v>
       </c>
-      <c r="T120" t="s">
-        <v>368</v>
-      </c>
       <c r="U120" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="V120" t="b">
         <v>0</v>
